--- a/Player_Class_Information.xlsx
+++ b/Player_Class_Information.xlsx
@@ -30,9 +30,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
     <t>Hit Points</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Bool</t>
+  </si>
+  <si>
+    <t>Character Class</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -644,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
@@ -657,13 +657,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
@@ -673,13 +673,13 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
@@ -689,13 +689,13 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
@@ -705,13 +705,13 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
@@ -721,13 +721,13 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
@@ -747,7 +747,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="9"/>
@@ -759,11 +759,11 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
@@ -827,7 +827,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="9"/>
@@ -839,11 +839,11 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -856,7 +856,7 @@
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -869,7 +869,7 @@
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -882,7 +882,7 @@
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -895,7 +895,7 @@
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
       <c r="C21" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
